--- a/data/D_DIRECTORES DE UNIDADES DE INVESTIGACIÓN.xlsx
+++ b/data/D_DIRECTORES DE UNIDADES DE INVESTIGACIÓN.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C977C42-1900-48E6-9CF1-6027B0CC88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829D121-411F-45FF-8B72-A12ED1765C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F91E5F1-0193-439C-AB66-B45EEBC0F349}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A7299D4-971C-494D-A9F8-1C68AEBABF4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="DIRECTORES DE UNIDADES DE INVES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -234,7 +234,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -283,30 +283,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF001F5F"/>
       </left>
       <right style="thin">
@@ -330,6 +306,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF001F5F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -363,31 +363,31 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,351 +413,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -792,6 +447,303 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -806,19 +758,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6CE5FE2-6497-4731-9C3A-645A02E343F3}" name="Tabla13" displayName="Tabla13" ref="A1:H12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H12" xr:uid="{1CF67117-5530-4C94-9C23-946C819199A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C19C9953-A52F-421B-99F5-1BD47A6C55EE}" name="Tabla1" displayName="Tabla1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H12" xr:uid="{C19C9953-A52F-421B-99F5-1BD47A6C55EE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A30C09A7-4259-4133-A19C-8DB3F70EDB9B}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A8EC623F-B0A5-4D83-98BC-96CB96ACCE07}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4893125F-4E36-4B18-8888-2057565A467E}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{15349713-79AE-4BD1-AD42-30BC6CDB282C}" name="RESOL." dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{982499EF-E272-4CA1-84D4-D553495A3EFC}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{D0D2970B-C98D-4329-BF5C-0ABEE630BBB9}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{37CC4B37-5C87-43F0-9968-B6D699383899}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{34D40EE9-D108-4F33-B39E-CDAB1711E0BF}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{51AA1B8B-8CBF-49D7-97FC-E863FCCA46EA}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{98AF6994-7E28-4CDE-B995-EC73C23B81D7}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0680D624-A356-41FE-B12C-0DD880BF9C79}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{67E906CE-AE96-4742-8559-CE3E45F22986}" name="RESOL." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B0F3E587-1F30-4D28-8D14-F5BBC53E73FB}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{037D4591-99EE-45F7-8ED6-25F1BF9F4466}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{83E6D5A4-F86B-43D8-82AD-99F0C904EB3D}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D1B00F52-6F47-40E2-B663-E296EC47A447}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1118,251 +1070,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F907F26E-56E7-48B5-AD5B-C482CA8B4CD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D486835-5BD8-4BB0-A99F-85C91A98A2F7}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="3"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="56.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="56.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="56.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="56.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="56.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="56.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="56.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="56.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="56.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="67.5">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="56.25">
       <c r="A12" s="10" t="s">
@@ -1386,34 +1335,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.investigacion@unac.edu.pe" xr:uid="{750D6C0B-793D-4356-897D-3A83B5CD21F1}"/>
-    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.investigacion@unac.edu.pe" xr:uid="{AA3DCF37-B17D-44C8-9042-99D341D01994}"/>
-    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.investigacion@unac.edu.pe" xr:uid="{E66E98C5-6727-4089-8A22-D203B125D05A}"/>
-    <hyperlink ref="G5" r:id="rId4" display="mailto:fcnm.investigacion@unac.edu.pe" xr:uid="{5664535D-92A3-4134-9DD9-28C62D719E03}"/>
-    <hyperlink ref="G6" r:id="rId5" display="mailto:fcs.investigacion@unac.edu.pe" xr:uid="{D0398CEB-B69F-47B4-8711-64CE0A125C75}"/>
-    <hyperlink ref="G7" r:id="rId6" display="mailto:fiarn.investigacion@unac.edu.pe" xr:uid="{E1D3C418-979D-4820-9001-D70FE39F573D}"/>
-    <hyperlink ref="G8" r:id="rId7" display="mailto:fiee.investigacion@unac.edu.pe" xr:uid="{EB2FFD5A-5B66-422F-95A7-189F8257B6BA}"/>
-    <hyperlink ref="G9" r:id="rId8" display="mailto:fiis.investigacion@unac.edu.pe" xr:uid="{F13FE1F8-3B3A-4D45-9060-96BDBCD52533}"/>
-    <hyperlink ref="G10" r:id="rId9" display="mailto:fime.investigacion@unac.edu.pe" xr:uid="{60CCE8F0-7794-49BF-9D48-AB4D8275E1FB}"/>
-    <hyperlink ref="G11" r:id="rId10" display="mailto:fipa.investigacion@unac.edu.pe" xr:uid="{19CCDC5E-B53A-4C3E-ACB2-4D2079EEE987}"/>
-    <hyperlink ref="G12" r:id="rId11" display="mailto:fiq.investigacion@unac.edu.pe" xr:uid="{26A63A9B-28AD-47FE-AC4F-AB53ED9AE6AC}"/>
-    <hyperlink ref="F2" r:id="rId12" xr:uid="{ADA264FD-9E4D-483A-9F35-638D6A42FCD7}"/>
-    <hyperlink ref="F4" r:id="rId13" xr:uid="{4532FEFD-117E-41CC-BD95-87E61F08161A}"/>
-    <hyperlink ref="F5" r:id="rId14" xr:uid="{A23723C5-8A79-4864-8081-E16C3C668320}"/>
-    <hyperlink ref="F7" r:id="rId15" xr:uid="{BE11C5A5-AAC2-46C9-A332-043D6B164B17}"/>
-    <hyperlink ref="F8" r:id="rId16" xr:uid="{A0CCF156-51F6-40BA-80A6-03EF44023F26}"/>
-    <hyperlink ref="F9" r:id="rId17" xr:uid="{0360CACA-72BC-497E-A291-209E05252D12}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{F8490AA9-9176-434F-AF14-143E1CDA288B}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{0EBF589F-BF4A-43DF-B1A1-409B179D5C7B}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{951E2B07-A770-4255-90D5-BBFFE478E11E}"/>
-    <hyperlink ref="F6" r:id="rId21" xr:uid="{5C706F77-F0B0-416B-B03D-30C5EC6E599E}"/>
-    <hyperlink ref="D3" r:id="rId22" xr:uid="{8FCD3F9C-5FB5-4673-A663-6740ED150F92}"/>
-    <hyperlink ref="D4" r:id="rId23" xr:uid="{C4CBA6B2-63FF-48AF-A982-BBD5A07C7A0D}"/>
-    <hyperlink ref="D6" r:id="rId24" xr:uid="{2D800FE6-A1FF-488C-9148-22F00BFF023A}"/>
-    <hyperlink ref="D12" r:id="rId25" xr:uid="{A5A53AE1-245F-41BE-9A80-1C376344AB3F}"/>
-    <hyperlink ref="F11" r:id="rId26" xr:uid="{86135F98-1629-4257-8343-832A0573E516}"/>
-    <hyperlink ref="D10" r:id="rId27" xr:uid="{F4DA7CA2-0017-4F92-A625-8F371BD5A963}"/>
-    <hyperlink ref="D9" r:id="rId28" xr:uid="{74F74D88-EC27-4A03-96B4-2B4D6858A387}"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.investigacion@unac.edu.pe" xr:uid="{7408744F-6AA5-4F79-A6AD-B1BBAF8DC5EE}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.investigacion@unac.edu.pe" xr:uid="{F5F77B91-B8D6-461E-BC30-860A5CFE9622}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.investigacion@unac.edu.pe" xr:uid="{76CFC049-EEA5-4D5F-A680-F5442199401B}"/>
+    <hyperlink ref="G5" r:id="rId4" display="mailto:fcnm.investigacion@unac.edu.pe" xr:uid="{17C6A318-7AD3-4D27-BFFB-512C0D2840F3}"/>
+    <hyperlink ref="G6" r:id="rId5" display="mailto:fcs.investigacion@unac.edu.pe" xr:uid="{0347A205-7FB0-4885-9DBF-22C925157004}"/>
+    <hyperlink ref="G7" r:id="rId6" display="mailto:fiarn.investigacion@unac.edu.pe" xr:uid="{D86EAC2A-7140-42FE-A340-EBBC0C078406}"/>
+    <hyperlink ref="G8" r:id="rId7" display="mailto:fiee.investigacion@unac.edu.pe" xr:uid="{B0A6BBFE-C5BA-4D0E-BEA6-66CCE4654ED5}"/>
+    <hyperlink ref="G9" r:id="rId8" display="mailto:fiis.investigacion@unac.edu.pe" xr:uid="{983B6CEE-D1FC-45B3-81F5-E378A1E8665F}"/>
+    <hyperlink ref="G10" r:id="rId9" display="mailto:fime.investigacion@unac.edu.pe" xr:uid="{DBC536E0-F623-4EA8-8B84-E791C7777E33}"/>
+    <hyperlink ref="G11" r:id="rId10" display="mailto:fipa.investigacion@unac.edu.pe" xr:uid="{7ABB359F-09FA-4EDD-A43B-829EB455C6FE}"/>
+    <hyperlink ref="G12" r:id="rId11" display="mailto:fiq.investigacion@unac.edu.pe" xr:uid="{5CAD637C-38CF-4C37-983E-3F49E5387E48}"/>
+    <hyperlink ref="F2" r:id="rId12" xr:uid="{C3660B59-5A71-47A0-9390-A1ADDC87A8E6}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{228780EC-79A5-4577-945A-8CC7FBB4A6D1}"/>
+    <hyperlink ref="F5" r:id="rId14" xr:uid="{702F0957-7425-4348-8533-93925C4891A3}"/>
+    <hyperlink ref="F7" r:id="rId15" xr:uid="{EF2B9D76-AEC0-44D1-8D84-5139BB29B43A}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{048A18BA-C523-489D-8280-86B920D25899}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{8277260B-5AD4-4017-9CEE-58230A52F188}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{6B26B8C1-60AB-4D35-9587-99052E6127D1}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{9C1AB7FC-0494-4098-B14D-C2C8F422FEA3}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{87AAE0B1-E7AE-46AB-9C8C-CFED8F14EFD8}"/>
+    <hyperlink ref="F6" r:id="rId21" xr:uid="{C92D6BF0-70C1-49DD-B5C4-B422CA4C4F5B}"/>
+    <hyperlink ref="D3" r:id="rId22" xr:uid="{7CC07636-91C8-4278-A923-89401D42C831}"/>
+    <hyperlink ref="D4" r:id="rId23" xr:uid="{FAC4530E-3D12-430F-81A7-E603FA01BD6F}"/>
+    <hyperlink ref="D6" r:id="rId24" xr:uid="{BDB0D4A1-A69E-48D7-AC0A-DACB721D230A}"/>
+    <hyperlink ref="D12" r:id="rId25" xr:uid="{09BD7E02-9B34-4E63-9353-3261BC0ED8CC}"/>
+    <hyperlink ref="F11" r:id="rId26" xr:uid="{5BB9B908-26C5-4DD6-9B77-58D7056DB440}"/>
+    <hyperlink ref="D10" r:id="rId27" xr:uid="{51BAD5C8-632F-4B33-B13F-ECC33DF966F3}"/>
+    <hyperlink ref="D9" r:id="rId28" xr:uid="{7340E09C-2EC7-4298-AECD-8A71AABCC5B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
